--- a/网页的第一个表格的比对.xlsx
+++ b/网页的第一个表格的比对.xlsx
@@ -441,12 +441,12 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>2025-06-27</t>
+          <t>2025-07-14</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>2025-06-30</t>
+          <t>2025-07-15</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
@@ -462,13 +462,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>59.6</v>
+        <v>59.3</v>
       </c>
       <c r="C2" t="n">
-        <v>59.5</v>
+        <v>59.3</v>
       </c>
       <c r="D2" t="n">
-        <v>-0.17</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -478,13 +478,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>58.6</v>
+        <v>57.6</v>
       </c>
       <c r="C3" t="n">
-        <v>58.5</v>
+        <v>57.8</v>
       </c>
       <c r="D3" t="n">
-        <v>-0.17</v>
+        <v>0.35</v>
       </c>
     </row>
     <row r="4">
@@ -494,13 +494,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>52.2</v>
+        <v>51</v>
       </c>
       <c r="C4" t="n">
-        <v>52</v>
+        <v>51.3</v>
       </c>
       <c r="D4" t="n">
-        <v>-0.38</v>
+        <v>0.59</v>
       </c>
     </row>
     <row r="5">
@@ -510,13 +510,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>43.7</v>
+        <v>43.4</v>
       </c>
       <c r="C5" t="n">
-        <v>43.5</v>
+        <v>43.4</v>
       </c>
       <c r="D5" t="n">
-        <v>-0.46</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -542,13 +542,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>57.42</v>
+        <v>56.7</v>
       </c>
       <c r="C7" t="n">
-        <v>57.2</v>
+        <v>56.8</v>
       </c>
       <c r="D7" t="n">
-        <v>-0.38</v>
+        <v>0.18</v>
       </c>
     </row>
     <row r="8">
@@ -558,13 +558,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>58</v>
+        <v>56.7</v>
       </c>
       <c r="C8" t="n">
-        <v>57.8</v>
+        <v>56.8</v>
       </c>
       <c r="D8" t="n">
-        <v>-0.34</v>
+        <v>0.18</v>
       </c>
     </row>
   </sheetData>
